--- a/biology/Médecine/Mastoïdite/Mastoïdite.xlsx
+++ b/biology/Médecine/Mastoïdite/Mastoïdite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Masto%C3%AFdite</t>
+          <t>Mastoïdite</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une mastoïdite est une inflammation de la mastoïde. Il s'agit d'une forme de complication de l'otite, pouvant survenir en raison de la communication entre les cavités de l'oreille moyenne et celles de la mastoïde.
 Certaines mastoïdites peuvent nécessiter une intervention chirurgicale ORL (mastoïdectomie).
